--- a/biology/Zoologie/Aproceros/Aproceros.xlsx
+++ b/biology/Zoologie/Aproceros/Aproceros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aproceros   est un genre d'insectes hyménoptères de la famille des Argidae, originaire d'Asie orientale.
-Ce genre comprend une dizaine d'espèces décrites, dont toutes ont une aire de répartition naturelle confinée à l'Extrême-Orient (Chine, Japon, Extrême-Orient russe)[1].
+Ce genre comprend une dizaine d'espèces décrites, dont toutes ont une aire de répartition naturelle confinée à l'Extrême-Orient (Chine, Japon, Extrême-Orient russe).
 </t>
         </is>
       </c>
@@ -512,19 +524,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index to Organism Names (ION)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index to Organism Names (ION) :
 Aproceros antennatus Togashi 1998
 Aproceros hakusanus Togashi 1962
-Aproceros maculata Wei sp. nov.[3] ;
+Aproceros maculata Wei sp. nov. ;
 Aproceros leucopoda Takeuchi 1939
 Aproceros mikagei Togashi 2003
 Aproceros okutanii Togashi 1968
 Aproceros pallidicornis (Mocsary 1909)
-Aproceros scutellis Wei &amp; Nie 1998[3] ;
+Aproceros scutellis Wei &amp; Nie 1998 ;
 Aproceros sikkimensis Saini &amp; Thind 1992
-Aproceros umbricola Malaise 1931[4].</t>
+Aproceros umbricola Malaise 1931.</t>
         </is>
       </c>
     </row>
